--- a/dados/regras/kit_equipamento/kit_equipamento.xlsx
+++ b/dados/regras/kit_equipamento/kit_equipamento.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
